--- a/Excel/freecodecamp.xlsx
+++ b/Excel/freecodecamp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,25 +468,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sVcwVQRHIc8</t>
+          <t>P2TcQ3h0ipQ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Learn RAG From Scratch – Python AI Tutor</t>
+          <t xml:space="preserve">JavaScript Tic Tac Toe Project Tutorial </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-04-17</t>
+          <t>2017-09-09</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>642288</v>
+        <v>269559</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2:33:11</t>
+          <t>0:51:43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -498,25 +498,25 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>JEBDfGqrAUA</t>
+          <t>xZDB1naRUlk</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vector Search RAG Tutorial – Combine You</t>
+          <t>Development with Large Language Models T</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2023-12-11</t>
+          <t>2023-08-18</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>252167</v>
+        <v>213042</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1:11:47</t>
+          <t>2:02:54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -528,58 +528,28 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ea2W8IogX80</t>
+          <t>jGg_1h0qzaM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>RAG Fundamentals and Advanced Techniques</t>
+          <t xml:space="preserve">LangGraph Complete Course for Beginners </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>84004</v>
+        <v>125800</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1:36:49</t>
+          <t>3:09:52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>d-VKYF4Zow0</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Build and Deploy a RAG Chatbot with Java</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2024-11-07</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>77522</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1:50:36</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
         <is>
           <t>N</t>
         </is>
